--- a/biology/Médecine/Echelle_de_Newcastle–Ottawa/Echelle_de_Newcastle–Ottawa.xlsx
+++ b/biology/Médecine/Echelle_de_Newcastle–Ottawa/Echelle_de_Newcastle–Ottawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Echelle_de_Newcastle%E2%80%93Ottawa</t>
+          <t>Echelle_de_Newcastle–Ottawa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'échelle de Newcastle–Ottawa est une méthode d'évaluation de la qualité d'études non-randomisées (notamment études cas témoin et de cohorte). L'échelle donne un score avec des étoiles. Au maximum 9 étoiles pour[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle de Newcastle–Ottawa est une méthode d'évaluation de la qualité d'études non-randomisées (notamment études cas témoin et de cohorte). L'échelle donne un score avec des étoiles. Au maximum 9 étoiles pour :
 la qualité de la sélection (cas bien définis, lieu (hôpital ou ambulatoire), témoins bien définis (pas d'histoire de maladie),
 la comparabilité entre les cas et les témoins,
 l'aveugle de la mesure des résultats des participants à l'étude, étude suffisamment longue pour la pathologie étudiée, nombre de perdus de vue
-Elle évalue aussi la facilité d'utilisation du contenu pour une méta-analyse[2].
-La méthode a été développée entre les universités de Newscastle en Australie et d'Ottawa au Canada[1].
+Elle évalue aussi la facilité d'utilisation du contenu pour une méta-analyse.
+La méthode a été développée entre les universités de Newscastle en Australie et d'Ottawa au Canada.
 </t>
         </is>
       </c>
